--- a/media/export/美客多质检单-MX店铺1.xlsx
+++ b/media/export/美客多质检单-MX店铺1.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,16 +30,26 @@
       <b val="1"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="微软雅黑"/>
+      <b val="1"/>
+      <sz val="15"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0065d6b4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -47,22 +57,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -145,7 +218,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
@@ -170,7 +243,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>3</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="952500" cy="952500"/>
@@ -181,6 +254,31 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -483,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +608,7 @@
           <t>SKU</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
@@ -520,7 +618,7 @@
           <t>图片</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>包材名称</t>
         </is>
@@ -535,82 +633,153 @@
           <t>箱号</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>配货抽检（签名）</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>包货抽检（签名）</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>装 箱（签名）</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="100" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>补仓</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>MD2032</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>丰先-防水壳iP 14 Pro Max-黑色</t>
-        </is>
-      </c>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>MX店铺1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
       <c r="D2" s="3" t="n"/>
-      <c r="F2" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="4" t="n"/>
     </row>
     <row r="3" ht="100" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>补仓</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>MD2033</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>丰先-防水壳iP 14 Pro-黑色</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n"/>
-      <c r="F3" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>MD2008</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>征翔-三星Z Flip 4-黑</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>无包材（直接贴标）</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="7" t="n"/>
+      <c r="J3" s="7" t="n"/>
+      <c r="K3" s="7" t="inlineStr"/>
+    </row>
+    <row r="4" ht="100" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>补仓</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>MD2009</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>征翔-三星Z Flip 4-蓝</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>无包材（直接贴标）</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="7" t="n"/>
+      <c r="J4" s="7" t="n"/>
+      <c r="K4" s="7" t="inlineStr"/>
+    </row>
+    <row r="5" ht="100" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>补仓</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>MD2010</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>征翔-三星Z Flip 4-紫</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>无包材（直接贴标）</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="inlineStr"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
